--- a/Statystyki_2018/Template/okrr_.xlsx
+++ b/Statystyki_2018/Template/okrr_.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">Obciążenie i wydajność pracy sędziów - ROZPRAWA I POS. JAWNE (na sesjach) za miesiąc: grudzień  2017</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Kordyka Krystian</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Kowalewska Ala</t>
   </si>
   <si>
@@ -288,12 +285,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>12046,3</t>
-  </si>
-  <si>
-    <t>16046,3</t>
   </si>
   <si>
     <t>STANOWISKO</t>
@@ -602,6 +593,15 @@
     <t>dane wykazane co do spraw (sygnatur)</t>
   </si>
   <si>
+    <t>Mika</t>
+  </si>
+  <si>
+    <t>Jola</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>6023.15</t>
   </si>
   <si>
@@ -617,27 +617,9 @@
     <t xml:space="preserve">123.15                        </t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>wpływ</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>załatwienia</t>
   </si>
   <si>
@@ -650,24 +632,15 @@
     <t>powyżej 3 do 6 miesięcy</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>powyżej 6 do 12 miesięcy</t>
   </si>
   <si>
     <t xml:space="preserve">3                             </t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>powyżej 12 miesięcy</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>w tym</t>
   </si>
   <si>
@@ -677,25 +650,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>powyżej 2 lat - 3 lat</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
   <si>
     <t>powyżej 3 lat - 5 lat</t>
@@ -878,7 +833,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +892,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1480,7 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1710,19 +1670,53 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="33" applyBorder="1" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -2185,7 +2179,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2220,7 +2214,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2264,7 +2258,7 @@
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2307,7 +2301,7 @@
     <row r="3" ht="21" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -2350,7 +2344,7 @@
     <row r="4" ht="21" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -2433,51 +2427,51 @@
     </row>
     <row r="6" ht="24.75" customHeight="1">
       <c r="A6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
       <c r="O6" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="39"/>
@@ -2491,31 +2485,31 @@
       <c r="AC6" s="39"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF6" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AG6" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AI6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ6" s="31" t="s">
+      <c r="AL6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL6" s="32" t="s">
-        <v>44</v>
-      </c>
       <c r="AM6" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="24.75" customHeight="1">
@@ -2530,13 +2524,13 @@
       <c r="I7" s="31"/>
       <c r="J7" s="35"/>
       <c r="K7" s="44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="37"/>
@@ -2556,7 +2550,7 @@
         <v>9</v>
       </c>
       <c r="Y7" s="48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Z7" s="48" t="s">
         <v>10</v>
@@ -2571,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="AD7" s="49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AE7" s="40"/>
       <c r="AF7" s="29"/>
@@ -2592,7 +2586,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="7"/>
       <c r="H8" s="50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="35"/>
@@ -2600,22 +2594,22 @@
       <c r="L8" s="45"/>
       <c r="M8" s="46"/>
       <c r="N8" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R8" s="53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U8" s="54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V8" s="54"/>
       <c r="W8" s="54"/>
@@ -2658,13 +2652,13 @@
       <c r="S9" s="47"/>
       <c r="T9" s="52"/>
       <c r="U9" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="X9" s="48"/>
       <c r="Y9" s="48"/>
@@ -2678,7 +2672,7 @@
       <c r="AG9" s="41"/>
       <c r="AH9" s="42"/>
       <c r="AI9" s="55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AJ9" s="55"/>
       <c r="AK9" s="55"/>
@@ -2686,1639 +2680,1580 @@
       <c r="AM9" s="43"/>
     </row>
     <row r="10">
-      <c r="A10" s="80">
+      <c r="A10" s="81">
         <v>1</v>
       </c>
       <c r="B10" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="85">
+        <v>0</v>
+      </c>
+      <c r="G10" s="85">
+        <v>0</v>
+      </c>
+      <c r="H10" s="85">
+        <v>0</v>
+      </c>
+      <c r="I10" s="85">
+        <v>0</v>
+      </c>
+      <c r="J10" s="85">
+        <v>0</v>
+      </c>
+      <c r="K10" s="85">
+        <v>0</v>
+      </c>
+      <c r="L10" s="85">
+        <v>0</v>
+      </c>
+      <c r="M10" s="85">
+        <v>0</v>
+      </c>
+      <c r="N10" s="85">
+        <v>0</v>
+      </c>
+      <c r="O10" s="85">
+        <v>0</v>
+      </c>
+      <c r="P10" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="85">
+        <v>0</v>
+      </c>
+      <c r="R10" s="85">
+        <v>0</v>
+      </c>
+      <c r="S10" s="85">
+        <v>0</v>
+      </c>
+      <c r="T10" s="85">
+        <v>0</v>
+      </c>
+      <c r="U10" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V10" s="85">
+        <v>0</v>
+      </c>
+      <c r="W10" s="85">
+        <v>0</v>
+      </c>
+      <c r="X10" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="81">
+        <v>2</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="D11" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="E11" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="F11" s="85">
+        <v>0</v>
+      </c>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="85">
+        <v>0</v>
+      </c>
+      <c r="I11" s="85">
+        <v>0</v>
+      </c>
+      <c r="J11" s="85">
+        <v>0</v>
+      </c>
+      <c r="K11" s="85">
+        <v>0</v>
+      </c>
+      <c r="L11" s="85">
+        <v>0</v>
+      </c>
+      <c r="M11" s="85">
+        <v>0</v>
+      </c>
+      <c r="N11" s="85">
+        <v>0</v>
+      </c>
+      <c r="O11" s="85">
+        <v>0</v>
+      </c>
+      <c r="P11" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="85">
+        <v>0</v>
+      </c>
+      <c r="R11" s="85">
+        <v>0</v>
+      </c>
+      <c r="S11" s="85">
+        <v>0</v>
+      </c>
+      <c r="T11" s="85">
+        <v>0</v>
+      </c>
+      <c r="U11" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V11" s="85">
+        <v>0</v>
+      </c>
+      <c r="W11" s="85">
+        <v>0</v>
+      </c>
+      <c r="X11" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="81">
+        <v>3</v>
+      </c>
+      <c r="B12" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="82">
-        <v>0</v>
-      </c>
-      <c r="G10" s="82">
-        <v>0</v>
-      </c>
-      <c r="H10" s="82">
-        <v>0</v>
-      </c>
-      <c r="I10" s="82">
-        <v>0</v>
-      </c>
-      <c r="J10" s="82">
-        <v>0</v>
-      </c>
-      <c r="K10" s="82">
-        <v>0</v>
-      </c>
-      <c r="L10" s="82">
-        <v>0</v>
-      </c>
-      <c r="M10" s="82">
-        <v>0</v>
-      </c>
-      <c r="N10" s="82">
-        <v>0</v>
-      </c>
-      <c r="O10" s="82">
-        <v>0</v>
-      </c>
-      <c r="P10" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="82">
-        <v>0</v>
-      </c>
-      <c r="R10" s="82">
-        <v>0</v>
-      </c>
-      <c r="S10" s="82">
-        <v>0</v>
-      </c>
-      <c r="T10" s="82">
-        <v>0</v>
-      </c>
-      <c r="U10" s="82">
-        <v>0</v>
-      </c>
-      <c r="V10" s="82">
-        <v>0</v>
-      </c>
-      <c r="W10" s="82">
-        <v>0</v>
-      </c>
-      <c r="X10" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="82">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="82"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="80">
-        <v>2</v>
-      </c>
-      <c r="B11" s="80" t="s">
+      <c r="C12" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="D12" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="E12" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="F12" s="85">
+        <v>0</v>
+      </c>
+      <c r="G12" s="85">
+        <v>0</v>
+      </c>
+      <c r="H12" s="85">
+        <v>0</v>
+      </c>
+      <c r="I12" s="85">
+        <v>0</v>
+      </c>
+      <c r="J12" s="85">
+        <v>0</v>
+      </c>
+      <c r="K12" s="85">
+        <v>0</v>
+      </c>
+      <c r="L12" s="85">
+        <v>0</v>
+      </c>
+      <c r="M12" s="85">
+        <v>0</v>
+      </c>
+      <c r="N12" s="85">
+        <v>0</v>
+      </c>
+      <c r="O12" s="85">
+        <v>0</v>
+      </c>
+      <c r="P12" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="85">
+        <v>0</v>
+      </c>
+      <c r="R12" s="85">
+        <v>0</v>
+      </c>
+      <c r="S12" s="85">
+        <v>0</v>
+      </c>
+      <c r="T12" s="85">
+        <v>0</v>
+      </c>
+      <c r="U12" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V12" s="85">
+        <v>0</v>
+      </c>
+      <c r="W12" s="85">
+        <v>0</v>
+      </c>
+      <c r="X12" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="85"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="81">
+        <v>4</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="82">
-        <v>0</v>
-      </c>
-      <c r="G11" s="82">
-        <v>0</v>
-      </c>
-      <c r="H11" s="82">
-        <v>0</v>
-      </c>
-      <c r="I11" s="82">
-        <v>0</v>
-      </c>
-      <c r="J11" s="82">
-        <v>0</v>
-      </c>
-      <c r="K11" s="82">
-        <v>0</v>
-      </c>
-      <c r="L11" s="82">
-        <v>0</v>
-      </c>
-      <c r="M11" s="82">
-        <v>0</v>
-      </c>
-      <c r="N11" s="82">
-        <v>0</v>
-      </c>
-      <c r="O11" s="82">
-        <v>0</v>
-      </c>
-      <c r="P11" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="82">
-        <v>0</v>
-      </c>
-      <c r="R11" s="82">
-        <v>0</v>
-      </c>
-      <c r="S11" s="82">
-        <v>0</v>
-      </c>
-      <c r="T11" s="82">
-        <v>0</v>
-      </c>
-      <c r="U11" s="82">
-        <v>0</v>
-      </c>
-      <c r="V11" s="82">
-        <v>0</v>
-      </c>
-      <c r="W11" s="82">
-        <v>0</v>
-      </c>
-      <c r="X11" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="82">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="82"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="80">
-        <v>3</v>
-      </c>
-      <c r="B12" s="80" t="s">
+      <c r="E13" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="85">
+        <v>0</v>
+      </c>
+      <c r="G13" s="85">
+        <v>0</v>
+      </c>
+      <c r="H13" s="85">
+        <v>0</v>
+      </c>
+      <c r="I13" s="85">
+        <v>0</v>
+      </c>
+      <c r="J13" s="85">
+        <v>0</v>
+      </c>
+      <c r="K13" s="85">
+        <v>0</v>
+      </c>
+      <c r="L13" s="85">
+        <v>0</v>
+      </c>
+      <c r="M13" s="85">
+        <v>0</v>
+      </c>
+      <c r="N13" s="85">
+        <v>0</v>
+      </c>
+      <c r="O13" s="85">
+        <v>0</v>
+      </c>
+      <c r="P13" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="85">
+        <v>0</v>
+      </c>
+      <c r="R13" s="85">
+        <v>0</v>
+      </c>
+      <c r="S13" s="85">
+        <v>0</v>
+      </c>
+      <c r="T13" s="85">
+        <v>0</v>
+      </c>
+      <c r="U13" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V13" s="85">
+        <v>0</v>
+      </c>
+      <c r="W13" s="85">
+        <v>0</v>
+      </c>
+      <c r="X13" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="85"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="81">
+        <v>5</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="85">
+        <v>2038</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0</v>
+      </c>
+      <c r="H14" s="85">
+        <v>0</v>
+      </c>
+      <c r="I14" s="85">
+        <v>0</v>
+      </c>
+      <c r="J14" s="85">
+        <v>0</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="85">
+        <v>0</v>
+      </c>
+      <c r="M14" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="85">
+        <v>0</v>
+      </c>
+      <c r="O14" s="85">
+        <v>0</v>
+      </c>
+      <c r="P14" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="85">
+        <v>0</v>
+      </c>
+      <c r="R14" s="85">
+        <v>0</v>
+      </c>
+      <c r="S14" s="85">
+        <v>0</v>
+      </c>
+      <c r="T14" s="85">
+        <v>0</v>
+      </c>
+      <c r="U14" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V14" s="85">
+        <v>0</v>
+      </c>
+      <c r="W14" s="85">
+        <v>0</v>
+      </c>
+      <c r="X14" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="81">
+        <v>6</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="82">
-        <v>0</v>
-      </c>
-      <c r="G12" s="82">
-        <v>0</v>
-      </c>
-      <c r="H12" s="82">
-        <v>0</v>
-      </c>
-      <c r="I12" s="82">
-        <v>0</v>
-      </c>
-      <c r="J12" s="82">
-        <v>0</v>
-      </c>
-      <c r="K12" s="82">
-        <v>0</v>
-      </c>
-      <c r="L12" s="82">
-        <v>0</v>
-      </c>
-      <c r="M12" s="82">
-        <v>0</v>
-      </c>
-      <c r="N12" s="82">
-        <v>0</v>
-      </c>
-      <c r="O12" s="82">
-        <v>0</v>
-      </c>
-      <c r="P12" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="82">
-        <v>0</v>
-      </c>
-      <c r="R12" s="82">
-        <v>0</v>
-      </c>
-      <c r="S12" s="82">
-        <v>0</v>
-      </c>
-      <c r="T12" s="82">
-        <v>0</v>
-      </c>
-      <c r="U12" s="82">
-        <v>0</v>
-      </c>
-      <c r="V12" s="82">
-        <v>0</v>
-      </c>
-      <c r="W12" s="82">
-        <v>0</v>
-      </c>
-      <c r="X12" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="82">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="82"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="80">
-        <v>4</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="81" t="s">
+      <c r="D15" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="82">
-        <v>2038</v>
-      </c>
-      <c r="G13" s="82">
-        <v>0</v>
-      </c>
-      <c r="H13" s="82">
-        <v>0</v>
-      </c>
-      <c r="I13" s="82">
-        <v>0</v>
-      </c>
-      <c r="J13" s="82">
-        <v>0</v>
-      </c>
-      <c r="K13" s="82" t="s">
+      <c r="E15" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2056</v>
+      </c>
+      <c r="G15" s="85">
+        <v>0</v>
+      </c>
+      <c r="H15" s="85">
+        <v>0</v>
+      </c>
+      <c r="I15" s="85">
+        <v>0</v>
+      </c>
+      <c r="J15" s="85">
+        <v>0</v>
+      </c>
+      <c r="K15" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="L13" s="82">
-        <v>0</v>
-      </c>
-      <c r="M13" s="82" t="s">
+      <c r="L15" s="85">
+        <v>0</v>
+      </c>
+      <c r="M15" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="82">
-        <v>0</v>
-      </c>
-      <c r="O13" s="82">
-        <v>0</v>
-      </c>
-      <c r="P13" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="82">
-        <v>0</v>
-      </c>
-      <c r="R13" s="82">
-        <v>0</v>
-      </c>
-      <c r="S13" s="82">
-        <v>0</v>
-      </c>
-      <c r="T13" s="82">
-        <v>0</v>
-      </c>
-      <c r="U13" s="82">
-        <v>0</v>
-      </c>
-      <c r="V13" s="82">
-        <v>0</v>
-      </c>
-      <c r="W13" s="82">
-        <v>0</v>
-      </c>
-      <c r="X13" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="82">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="82"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="80">
-        <v>5</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="81" t="s">
+      <c r="N15" s="85">
+        <v>0</v>
+      </c>
+      <c r="O15" s="85">
+        <v>0</v>
+      </c>
+      <c r="P15" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="85">
+        <v>0</v>
+      </c>
+      <c r="R15" s="85">
+        <v>0</v>
+      </c>
+      <c r="S15" s="85">
+        <v>0</v>
+      </c>
+      <c r="T15" s="85">
+        <v>0</v>
+      </c>
+      <c r="U15" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V15" s="85">
+        <v>0</v>
+      </c>
+      <c r="W15" s="85">
+        <v>0</v>
+      </c>
+      <c r="X15" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="81">
+        <v>7</v>
+      </c>
+      <c r="B16" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="82">
-        <v>2056</v>
-      </c>
-      <c r="G14" s="82">
-        <v>0</v>
-      </c>
-      <c r="H14" s="82">
-        <v>0</v>
-      </c>
-      <c r="I14" s="82">
-        <v>0</v>
-      </c>
-      <c r="J14" s="82">
-        <v>0</v>
-      </c>
-      <c r="K14" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="82">
-        <v>0</v>
-      </c>
-      <c r="M14" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="82">
-        <v>0</v>
-      </c>
-      <c r="O14" s="82">
-        <v>0</v>
-      </c>
-      <c r="P14" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="82">
-        <v>0</v>
-      </c>
-      <c r="R14" s="82">
-        <v>0</v>
-      </c>
-      <c r="S14" s="82">
-        <v>0</v>
-      </c>
-      <c r="T14" s="82">
-        <v>0</v>
-      </c>
-      <c r="U14" s="82">
-        <v>0</v>
-      </c>
-      <c r="V14" s="82">
-        <v>0</v>
-      </c>
-      <c r="W14" s="82">
-        <v>0</v>
-      </c>
-      <c r="X14" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="82">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="82"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="80">
-        <v>6</v>
-      </c>
-      <c r="B15" s="80" t="s">
+      <c r="C16" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="D16" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="E16" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="82">
-        <v>0</v>
-      </c>
-      <c r="G15" s="82">
-        <v>0</v>
-      </c>
-      <c r="H15" s="82">
-        <v>0</v>
-      </c>
-      <c r="I15" s="82">
-        <v>0</v>
-      </c>
-      <c r="J15" s="82">
-        <v>0</v>
-      </c>
-      <c r="K15" s="82">
-        <v>0</v>
-      </c>
-      <c r="L15" s="82">
-        <v>0</v>
-      </c>
-      <c r="M15" s="82">
-        <v>0</v>
-      </c>
-      <c r="N15" s="82">
-        <v>0</v>
-      </c>
-      <c r="O15" s="82">
-        <v>0</v>
-      </c>
-      <c r="P15" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="82">
-        <v>0</v>
-      </c>
-      <c r="R15" s="82">
-        <v>0</v>
-      </c>
-      <c r="S15" s="82">
-        <v>0</v>
-      </c>
-      <c r="T15" s="82">
-        <v>0</v>
-      </c>
-      <c r="U15" s="82">
-        <v>0</v>
-      </c>
-      <c r="V15" s="82">
-        <v>0</v>
-      </c>
-      <c r="W15" s="82">
-        <v>0</v>
-      </c>
-      <c r="X15" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="82">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="82"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="80" t="s">
+      <c r="F16" s="85">
+        <v>0</v>
+      </c>
+      <c r="G16" s="85">
+        <v>0</v>
+      </c>
+      <c r="H16" s="85">
+        <v>0</v>
+      </c>
+      <c r="I16" s="85">
+        <v>0</v>
+      </c>
+      <c r="J16" s="85">
+        <v>0</v>
+      </c>
+      <c r="K16" s="85">
+        <v>0</v>
+      </c>
+      <c r="L16" s="85">
+        <v>0</v>
+      </c>
+      <c r="M16" s="85">
+        <v>0</v>
+      </c>
+      <c r="N16" s="85">
+        <v>0</v>
+      </c>
+      <c r="O16" s="85">
+        <v>0</v>
+      </c>
+      <c r="P16" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="85">
+        <v>0</v>
+      </c>
+      <c r="R16" s="85">
+        <v>0</v>
+      </c>
+      <c r="S16" s="85">
+        <v>0</v>
+      </c>
+      <c r="T16" s="85">
+        <v>0</v>
+      </c>
+      <c r="U16" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="V16" s="85">
+        <v>0</v>
+      </c>
+      <c r="W16" s="85">
+        <v>0</v>
+      </c>
+      <c r="X16" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="85">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="85"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="80" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="80" t="s">
+      <c r="T17" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="U16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V16" s="80" t="s">
+      <c r="U17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W17" s="92"/>
+      <c r="Y17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK17" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL17" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="W16" s="80" t="s">
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W18" s="93"/>
+      <c r="Y18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL18" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="X16" s="80" t="s">
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="Y16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL16" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="85"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="80" t="s">
+      <c r="V19" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W19" s="93"/>
+      <c r="Y19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL19" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V17" s="80" t="s">
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V20" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W20" s="93"/>
+      <c r="Y20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK20" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL20" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="W17" s="80" t="s">
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V21" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W21" s="93"/>
+      <c r="Y21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL21" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="87"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="X17" s="80" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="Y17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK17" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL17" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="85"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="80" t="s">
+      <c r="U22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V22" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W22" s="93"/>
+      <c r="Y22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL22" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="87"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U18" s="80" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W23" s="93"/>
+      <c r="Y23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL23" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="87"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="V18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="X18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK18" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL18" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="85"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="80" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK19" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL19" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="85"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="80" t="s">
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" s="80" t="s">
+      <c r="T24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V24" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W24" s="93"/>
+      <c r="Y24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL24" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="87"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="X20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK20" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL20" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="85"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="80" t="s">
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V25" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W25" s="93"/>
+      <c r="Y25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK25" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL25" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="87"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T21" s="80" t="s">
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V26" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W26" s="93"/>
+      <c r="Y26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK26" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL26" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="88"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="U21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="X21" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK21" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL21" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="85"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="X22" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK22" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL22" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="85"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="T23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="W23" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="X23" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK23" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL23" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="85"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V24" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="W24" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="X24" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK24" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL24" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="85"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="X25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK25" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL25" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="86"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="T26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="U26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="V26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="W26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="X26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK26" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL26" s="80" t="s">
-        <v>66</v>
-      </c>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="U27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V27" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="W27" s="93"/>
+      <c r="Y27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK27" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL27" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="V28" s="88"/>
+      <c r="W28" s="94"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4375,19 +4310,21 @@
     <mergeCell ref="AI13:AL13"/>
     <mergeCell ref="AI14:AL14"/>
     <mergeCell ref="AI15:AL15"/>
-    <mergeCell ref="A16:C26"/>
-    <mergeCell ref="D16:R16"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="A17:C27"/>
     <mergeCell ref="D17:R17"/>
     <mergeCell ref="D18:R18"/>
     <mergeCell ref="D19:R19"/>
     <mergeCell ref="D20:R20"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D22:R22"/>
-    <mergeCell ref="D23:E26"/>
-    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="D23:R23"/>
+    <mergeCell ref="D24:E27"/>
     <mergeCell ref="F24:R24"/>
     <mergeCell ref="F25:R25"/>
     <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="V17:W28"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
@@ -4455,7 +4392,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:E4"/>
@@ -4478,7 +4415,7 @@
   <sheetData>
     <row r="1" ht="21">
       <c r="A1" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -4498,7 +4435,7 @@
     <row r="2" ht="21">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="57"/>
@@ -4517,7 +4454,7 @@
     <row r="3" ht="21">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="57"/>
@@ -4536,7 +4473,7 @@
     <row r="4" ht="21">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="57"/>
@@ -4582,22 +4519,22 @@
     </row>
     <row r="6" ht="24.75" customHeight="1">
       <c r="A6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="C6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="E6" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="F6" s="62" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
@@ -4608,7 +4545,7 @@
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
       <c r="O6" s="63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="24.75" customHeight="1">
@@ -4618,25 +4555,25 @@
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="65" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
       <c r="K7" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="M7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="N7" s="67" t="s">
         <v>40</v>
-      </c>
-      <c r="N7" s="67" t="s">
-        <v>41</v>
       </c>
       <c r="O7" s="63"/>
     </row>
@@ -4648,16 +4585,16 @@
       <c r="E8" s="61"/>
       <c r="F8" s="64"/>
       <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="K8" s="66"/>
       <c r="L8" s="66"/>
@@ -4666,320 +4603,602 @@
       <c r="O8" s="63"/>
     </row>
     <row r="9">
-      <c r="A9" s="92">
+      <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="D9" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="E9" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="F9" s="100">
+        <v>0</v>
+      </c>
+      <c r="G9" s="100">
+        <v>0</v>
+      </c>
+      <c r="H9" s="100">
+        <v>0</v>
+      </c>
+      <c r="I9" s="100">
+        <v>0</v>
+      </c>
+      <c r="J9" s="100">
+        <v>0</v>
+      </c>
+      <c r="K9" s="100">
+        <v>0</v>
+      </c>
+      <c r="L9" s="100">
+        <v>0</v>
+      </c>
+      <c r="M9" s="100">
+        <v>0</v>
+      </c>
+      <c r="N9" s="100">
+        <v>0</v>
+      </c>
+      <c r="O9" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="98">
+        <v>2</v>
+      </c>
+      <c r="B10" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="92">
-        <v>2</v>
-      </c>
-      <c r="B10" s="92" t="s">
+      <c r="C10" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="D10" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="E10" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="F10" s="100">
+        <v>0</v>
+      </c>
+      <c r="G10" s="100">
+        <v>0</v>
+      </c>
+      <c r="H10" s="100">
+        <v>0</v>
+      </c>
+      <c r="I10" s="100">
+        <v>0</v>
+      </c>
+      <c r="J10" s="100">
+        <v>0</v>
+      </c>
+      <c r="K10" s="100">
+        <v>0</v>
+      </c>
+      <c r="L10" s="100">
+        <v>0</v>
+      </c>
+      <c r="M10" s="100">
+        <v>0</v>
+      </c>
+      <c r="N10" s="100">
+        <v>0</v>
+      </c>
+      <c r="O10" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="98">
+        <v>3</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="92">
-        <v>3</v>
-      </c>
-      <c r="B11" s="92" t="s">
+      <c r="E11" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="100">
+        <v>0</v>
+      </c>
+      <c r="G11" s="100">
+        <v>0</v>
+      </c>
+      <c r="H11" s="100">
+        <v>0</v>
+      </c>
+      <c r="I11" s="100">
+        <v>0</v>
+      </c>
+      <c r="J11" s="100">
+        <v>0</v>
+      </c>
+      <c r="K11" s="100">
+        <v>0</v>
+      </c>
+      <c r="L11" s="100">
+        <v>0</v>
+      </c>
+      <c r="M11" s="100">
+        <v>0</v>
+      </c>
+      <c r="N11" s="100">
+        <v>0</v>
+      </c>
+      <c r="O11" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="98">
+        <v>4</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="100">
+        <v>0</v>
+      </c>
+      <c r="G12" s="100">
+        <v>0</v>
+      </c>
+      <c r="H12" s="100">
+        <v>0</v>
+      </c>
+      <c r="I12" s="100">
+        <v>0</v>
+      </c>
+      <c r="J12" s="100">
+        <v>0</v>
+      </c>
+      <c r="K12" s="100">
+        <v>0</v>
+      </c>
+      <c r="L12" s="100">
+        <v>0</v>
+      </c>
+      <c r="M12" s="100">
+        <v>0</v>
+      </c>
+      <c r="N12" s="100">
+        <v>0</v>
+      </c>
+      <c r="O12" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="98">
+        <v>5</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="D13" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="100">
+        <v>0</v>
+      </c>
+      <c r="G13" s="100">
+        <v>0</v>
+      </c>
+      <c r="H13" s="100">
+        <v>0</v>
+      </c>
+      <c r="I13" s="100">
+        <v>0</v>
+      </c>
+      <c r="J13" s="100">
+        <v>0</v>
+      </c>
+      <c r="K13" s="100">
+        <v>0</v>
+      </c>
+      <c r="L13" s="100">
+        <v>0</v>
+      </c>
+      <c r="M13" s="100">
+        <v>0</v>
+      </c>
+      <c r="N13" s="100">
+        <v>0</v>
+      </c>
+      <c r="O13" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="98">
+        <v>6</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="100">
+        <v>0</v>
+      </c>
+      <c r="G14" s="100">
+        <v>0</v>
+      </c>
+      <c r="H14" s="100">
+        <v>0</v>
+      </c>
+      <c r="I14" s="100">
+        <v>0</v>
+      </c>
+      <c r="J14" s="100">
+        <v>0</v>
+      </c>
+      <c r="K14" s="100">
+        <v>0</v>
+      </c>
+      <c r="L14" s="100">
+        <v>0</v>
+      </c>
+      <c r="M14" s="100">
+        <v>0</v>
+      </c>
+      <c r="N14" s="100">
+        <v>0</v>
+      </c>
+      <c r="O14" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="98">
+        <v>7</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="100">
+        <v>0</v>
+      </c>
+      <c r="G15" s="100">
+        <v>0</v>
+      </c>
+      <c r="H15" s="100">
+        <v>0</v>
+      </c>
+      <c r="I15" s="100">
+        <v>0</v>
+      </c>
+      <c r="J15" s="100">
+        <v>0</v>
+      </c>
+      <c r="K15" s="100">
+        <v>0</v>
+      </c>
+      <c r="L15" s="100">
+        <v>0</v>
+      </c>
+      <c r="M15" s="100">
+        <v>0</v>
+      </c>
+      <c r="N15" s="100">
+        <v>0</v>
+      </c>
+      <c r="O15" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="98">
+        <v>8</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="E16" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="100">
+        <v>0</v>
+      </c>
+      <c r="G16" s="100">
+        <v>0</v>
+      </c>
+      <c r="H16" s="100">
+        <v>0</v>
+      </c>
+      <c r="I16" s="100">
+        <v>0</v>
+      </c>
+      <c r="J16" s="100">
+        <v>0</v>
+      </c>
+      <c r="K16" s="100">
+        <v>0</v>
+      </c>
+      <c r="L16" s="100">
+        <v>0</v>
+      </c>
+      <c r="M16" s="100">
+        <v>0</v>
+      </c>
+      <c r="N16" s="100">
+        <v>0</v>
+      </c>
+      <c r="O16" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="98">
+        <v>9</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="F17" s="100">
+        <v>0</v>
+      </c>
+      <c r="G17" s="100">
+        <v>0</v>
+      </c>
+      <c r="H17" s="100">
+        <v>0</v>
+      </c>
+      <c r="I17" s="100">
+        <v>0</v>
+      </c>
+      <c r="J17" s="100">
+        <v>0</v>
+      </c>
+      <c r="K17" s="100">
+        <v>0</v>
+      </c>
+      <c r="L17" s="100">
+        <v>0</v>
+      </c>
+      <c r="M17" s="100">
+        <v>0</v>
+      </c>
+      <c r="N17" s="100">
+        <v>0</v>
+      </c>
+      <c r="O17" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="98">
+        <v>10</v>
+      </c>
+      <c r="B18" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="92">
-        <v>4</v>
-      </c>
-      <c r="B12" s="92" t="s">
+      <c r="C18" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="D18" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="E18" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="F18" s="100">
+        <v>0</v>
+      </c>
+      <c r="G18" s="100">
+        <v>0</v>
+      </c>
+      <c r="H18" s="100">
+        <v>0</v>
+      </c>
+      <c r="I18" s="100">
+        <v>0</v>
+      </c>
+      <c r="J18" s="100">
+        <v>0</v>
+      </c>
+      <c r="K18" s="100">
+        <v>0</v>
+      </c>
+      <c r="L18" s="100">
+        <v>0</v>
+      </c>
+      <c r="M18" s="100">
+        <v>0</v>
+      </c>
+      <c r="N18" s="100">
+        <v>0</v>
+      </c>
+      <c r="O18" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="98">
+        <v>11</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="94">
-        <v>6023.15</v>
-      </c>
-      <c r="L12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="94">
-        <v>8023.15</v>
-      </c>
-      <c r="N12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="92">
-        <v>5</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="93" t="s">
+      <c r="E19" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="F19" s="100">
+        <v>0</v>
+      </c>
+      <c r="G19" s="100">
+        <v>0</v>
+      </c>
+      <c r="H19" s="100">
+        <v>0</v>
+      </c>
+      <c r="I19" s="100">
+        <v>0</v>
+      </c>
+      <c r="J19" s="100">
+        <v>0</v>
+      </c>
+      <c r="K19" s="100">
+        <v>0</v>
+      </c>
+      <c r="L19" s="100">
+        <v>0</v>
+      </c>
+      <c r="M19" s="100">
+        <v>0</v>
+      </c>
+      <c r="N19" s="100">
+        <v>0</v>
+      </c>
+      <c r="O19" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="98">
+        <v>12</v>
+      </c>
+      <c r="B20" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="94">
-        <v>6023.15</v>
-      </c>
-      <c r="L13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="94">
-        <v>8023.15</v>
-      </c>
-      <c r="N13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="92">
-        <v>6</v>
-      </c>
-      <c r="B14" s="92" t="s">
+      <c r="C20" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="D20" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="E20" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="95" t="s">
-        <v>66</v>
+      <c r="F20" s="100">
+        <v>0</v>
+      </c>
+      <c r="G20" s="100">
+        <v>0</v>
+      </c>
+      <c r="H20" s="100">
+        <v>0</v>
+      </c>
+      <c r="I20" s="100">
+        <v>0</v>
+      </c>
+      <c r="J20" s="100">
+        <v>0</v>
+      </c>
+      <c r="K20" s="100">
+        <v>0</v>
+      </c>
+      <c r="L20" s="100">
+        <v>0</v>
+      </c>
+      <c r="M20" s="100">
+        <v>0</v>
+      </c>
+      <c r="N20" s="100">
+        <v>0</v>
+      </c>
+      <c r="O20" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="101" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5053,28 +5272,28 @@
   <sheetData>
     <row r="1" ht="15.6">
       <c r="A1" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -5086,21 +5305,21 @@
       <c r="T1" s="15"/>
       <c r="U1" s="10"/>
       <c r="V1" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W1" s="17" t="e">
         <f>VLOOKUP('Npw, Nk, Rc(a)'!$C$4,POMOCE!$L$2:$M$13,2)</f>
         <v>#N/A</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="17" t="e">
         <f>VLOOKUP('Npw, Nk, Rc(a)'!$C$2,POMOCE!$D$2:$E$14,2)</f>
         <v>#N/A</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="17" t="e">
         <f>VLOOKUP('Npw, Nk, Rc(a)'!$C$3,POMOCE!$H$2:$I$8,2)</f>
@@ -5109,40 +5328,40 @@
     </row>
     <row r="2" ht="31.2">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="K2" s="10">
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M2" s="10">
         <v>6</v>
@@ -5155,13 +5374,13 @@
         <v>3</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -5177,40 +5396,40 @@
     </row>
     <row r="3" ht="15.6">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="10">
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I3" s="10">
         <v>3</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K3" s="10">
         <v>2</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M3" s="10">
         <v>12</v>
@@ -5223,13 +5442,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -5242,40 +5461,40 @@
     </row>
     <row r="4" ht="31.2">
       <c r="A4" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="10">
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G4" s="10">
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I4" s="10">
         <v>4</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K4" s="10">
         <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M4" s="10">
         <v>4</v>
@@ -5288,13 +5507,13 @@
         <v>4</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -5307,16 +5526,16 @@
     </row>
     <row r="5" ht="46.8">
       <c r="A5" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="10">
         <v>3</v>
@@ -5326,13 +5545,13 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" s="10">
         <v>4</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="10">
         <v>7</v>
@@ -5345,13 +5564,13 @@
         <v>3</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -5365,13 +5584,13 @@
     <row r="6" ht="46.8">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="10">
         <v>4</v>
@@ -5381,13 +5600,13 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K6" s="10">
         <v>5</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M6" s="10">
         <v>11</v>
@@ -5400,13 +5619,13 @@
         <v>3</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -5420,13 +5639,13 @@
     <row r="7" ht="46.8">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="20">
         <v>6</v>
@@ -5436,13 +5655,13 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="10">
         <v>6</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M7" s="10">
         <v>2</v>
@@ -5455,13 +5674,13 @@
         <v>3</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -5475,13 +5694,13 @@
     <row r="8" ht="46.8">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="E8" s="10">
         <v>12</v>
@@ -5491,13 +5710,13 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K8" s="10">
         <v>7</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M8" s="10">
         <v>5</v>
@@ -5510,13 +5729,13 @@
         <v>3</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -5530,13 +5749,13 @@
     <row r="9" ht="31.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="20">
         <v>5</v>
@@ -5546,13 +5765,13 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K9" s="10">
         <v>8</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M9" s="10">
         <v>3</v>
@@ -5565,13 +5784,13 @@
         <v>3</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -5585,13 +5804,13 @@
     <row r="10" ht="31.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E10" s="10">
         <v>7</v>
@@ -5601,13 +5820,13 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K10" s="10">
         <v>9</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M10" s="10">
         <v>10</v>
@@ -5620,13 +5839,13 @@
         <v>3</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -5641,10 +5860,10 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" s="10">
         <v>8</v>
@@ -5654,13 +5873,13 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K11" s="10">
         <v>10</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M11" s="10">
         <v>8</v>
@@ -5673,13 +5892,13 @@
         <v>3</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -5694,10 +5913,10 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="10">
         <v>9</v>
@@ -5707,13 +5926,13 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K12" s="10">
         <v>11</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M12" s="10">
         <v>1</v>
@@ -5726,13 +5945,13 @@
         <v>3</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -5747,10 +5966,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E13" s="10">
         <v>10</v>
@@ -5760,13 +5979,13 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K13" s="10">
         <v>12</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M13" s="10">
         <v>9</v>
@@ -5779,13 +5998,13 @@
         <v>3</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -5800,10 +6019,10 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="10">
         <v>11</v>
@@ -6055,80 +6274,80 @@
       <c r="B5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="X5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="82" t="s">
-        <v>19</v>
+      <c r="C5" s="84">
+        <v>0</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0</v>
+      </c>
+      <c r="E5" s="84">
+        <v>0</v>
+      </c>
+      <c r="F5" s="84">
+        <v>0</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0</v>
+      </c>
+      <c r="H5" s="84">
+        <v>0</v>
+      </c>
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
+        <v>0</v>
+      </c>
+      <c r="K5" s="84">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="84">
+        <v>0</v>
+      </c>
+      <c r="O5" s="84">
+        <v>0</v>
+      </c>
+      <c r="P5" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="84">
+        <v>0</v>
+      </c>
+      <c r="R5" s="84">
+        <v>0</v>
+      </c>
+      <c r="S5" s="84">
+        <v>0</v>
+      </c>
+      <c r="T5" s="84">
+        <v>0</v>
+      </c>
+      <c r="U5" s="84">
+        <v>0</v>
+      </c>
+      <c r="V5" s="84">
+        <v>0</v>
+      </c>
+      <c r="W5" s="84">
+        <v>0</v>
+      </c>
+      <c r="X5" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6136,82 +6355,82 @@
         <v>2</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="82" t="s">
-        <v>19</v>
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="84">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>0</v>
+      </c>
+      <c r="F6" s="84">
+        <v>0</v>
+      </c>
+      <c r="G6" s="84">
+        <v>0</v>
+      </c>
+      <c r="H6" s="84">
+        <v>0</v>
+      </c>
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="84">
+        <v>0</v>
+      </c>
+      <c r="K6" s="84">
+        <v>0</v>
+      </c>
+      <c r="L6" s="84">
+        <v>0</v>
+      </c>
+      <c r="M6" s="84">
+        <v>0</v>
+      </c>
+      <c r="N6" s="84">
+        <v>0</v>
+      </c>
+      <c r="O6" s="84">
+        <v>0</v>
+      </c>
+      <c r="P6" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="84">
+        <v>0</v>
+      </c>
+      <c r="R6" s="84">
+        <v>0</v>
+      </c>
+      <c r="S6" s="84">
+        <v>0</v>
+      </c>
+      <c r="T6" s="84">
+        <v>0</v>
+      </c>
+      <c r="U6" s="84">
+        <v>0</v>
+      </c>
+      <c r="V6" s="84">
+        <v>0</v>
+      </c>
+      <c r="W6" s="84">
+        <v>0</v>
+      </c>
+      <c r="X6" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6219,82 +6438,82 @@
         <v>3</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="82" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0</v>
+      </c>
+      <c r="E7" s="84">
+        <v>0</v>
+      </c>
+      <c r="F7" s="84">
+        <v>0</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0</v>
+      </c>
+      <c r="H7" s="84">
+        <v>0</v>
+      </c>
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="84">
+        <v>0</v>
+      </c>
+      <c r="K7" s="84">
+        <v>0</v>
+      </c>
+      <c r="L7" s="84">
+        <v>0</v>
+      </c>
+      <c r="M7" s="84">
+        <v>0</v>
+      </c>
+      <c r="N7" s="84">
+        <v>0</v>
+      </c>
+      <c r="O7" s="84">
+        <v>0</v>
+      </c>
+      <c r="P7" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="84">
+        <v>0</v>
+      </c>
+      <c r="R7" s="84">
+        <v>0</v>
+      </c>
+      <c r="S7" s="84">
+        <v>0</v>
+      </c>
+      <c r="T7" s="84">
+        <v>0</v>
+      </c>
+      <c r="U7" s="84">
+        <v>0</v>
+      </c>
+      <c r="V7" s="84">
+        <v>0</v>
+      </c>
+      <c r="W7" s="84">
+        <v>0</v>
+      </c>
+      <c r="X7" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6302,82 +6521,82 @@
         <v>4</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="82">
+        <v>21</v>
+      </c>
+      <c r="C8" s="84">
         <v>2</v>
       </c>
-      <c r="D8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="82">
+      <c r="D8" s="84">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84">
+        <v>0</v>
+      </c>
+      <c r="F8" s="84">
         <v>4</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="82">
+      <c r="G8" s="84">
+        <v>0</v>
+      </c>
+      <c r="H8" s="84">
+        <v>4</v>
+      </c>
+      <c r="I8" s="84">
+        <v>0</v>
+      </c>
+      <c r="J8" s="84">
         <v>6</v>
       </c>
-      <c r="K8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="82" t="s">
-        <v>19</v>
+      <c r="K8" s="84">
+        <v>0</v>
+      </c>
+      <c r="L8" s="84">
+        <v>0</v>
+      </c>
+      <c r="M8" s="84">
+        <v>0</v>
+      </c>
+      <c r="N8" s="84">
+        <v>0</v>
+      </c>
+      <c r="O8" s="84">
+        <v>0</v>
+      </c>
+      <c r="P8" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>0</v>
+      </c>
+      <c r="R8" s="84">
+        <v>0</v>
+      </c>
+      <c r="S8" s="84">
+        <v>0</v>
+      </c>
+      <c r="T8" s="84">
+        <v>0</v>
+      </c>
+      <c r="U8" s="84">
+        <v>0</v>
+      </c>
+      <c r="V8" s="84">
+        <v>0</v>
+      </c>
+      <c r="W8" s="84">
+        <v>0</v>
+      </c>
+      <c r="X8" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6385,82 +6604,82 @@
         <v>5</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="82">
+        <v>22</v>
+      </c>
+      <c r="C9" s="84">
         <v>3</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="82">
+      <c r="D9" s="84">
+        <v>0</v>
+      </c>
+      <c r="E9" s="84">
+        <v>0</v>
+      </c>
+      <c r="F9" s="84">
         <v>3</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="84">
         <v>2</v>
       </c>
-      <c r="H9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="82">
+      <c r="H9" s="84">
+        <v>5</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0</v>
+      </c>
+      <c r="J9" s="84">
         <v>8</v>
       </c>
-      <c r="K9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="X9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="82" t="s">
-        <v>19</v>
+      <c r="K9" s="84">
+        <v>0</v>
+      </c>
+      <c r="L9" s="84">
+        <v>0</v>
+      </c>
+      <c r="M9" s="84">
+        <v>0</v>
+      </c>
+      <c r="N9" s="84">
+        <v>0</v>
+      </c>
+      <c r="O9" s="84">
+        <v>0</v>
+      </c>
+      <c r="P9" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>0</v>
+      </c>
+      <c r="R9" s="84">
+        <v>0</v>
+      </c>
+      <c r="S9" s="84">
+        <v>0</v>
+      </c>
+      <c r="T9" s="84">
+        <v>0</v>
+      </c>
+      <c r="U9" s="84">
+        <v>0</v>
+      </c>
+      <c r="V9" s="84">
+        <v>0</v>
+      </c>
+      <c r="W9" s="84">
+        <v>0</v>
+      </c>
+      <c r="X9" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6468,82 +6687,82 @@
         <v>6</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="V10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="X10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA10" s="82" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="84">
+        <v>0</v>
+      </c>
+      <c r="D10" s="84">
+        <v>0</v>
+      </c>
+      <c r="E10" s="84">
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
+        <v>0</v>
+      </c>
+      <c r="G10" s="84">
+        <v>0</v>
+      </c>
+      <c r="H10" s="84">
+        <v>0</v>
+      </c>
+      <c r="I10" s="84">
+        <v>0</v>
+      </c>
+      <c r="J10" s="84">
+        <v>0</v>
+      </c>
+      <c r="K10" s="84">
+        <v>0</v>
+      </c>
+      <c r="L10" s="84">
+        <v>0</v>
+      </c>
+      <c r="M10" s="84">
+        <v>0</v>
+      </c>
+      <c r="N10" s="84">
+        <v>0</v>
+      </c>
+      <c r="O10" s="84">
+        <v>0</v>
+      </c>
+      <c r="P10" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="84">
+        <v>0</v>
+      </c>
+      <c r="R10" s="84">
+        <v>0</v>
+      </c>
+      <c r="S10" s="84">
+        <v>0</v>
+      </c>
+      <c r="T10" s="84">
+        <v>0</v>
+      </c>
+      <c r="U10" s="84">
+        <v>0</v>
+      </c>
+      <c r="V10" s="84">
+        <v>0</v>
+      </c>
+      <c r="W10" s="84">
+        <v>0</v>
+      </c>
+      <c r="X10" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6598,7 +6817,7 @@
   <sheetData>
     <row r="1" ht="28.35" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -6623,10 +6842,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
@@ -6635,10 +6854,10 @@
       <c r="H2" s="69"/>
       <c r="I2" s="69"/>
       <c r="J2" s="78" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K2" s="69" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
@@ -6647,7 +6866,7 @@
       <c r="P2" s="69"/>
       <c r="Q2" s="69"/>
       <c r="R2" s="79" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" ht="28.35" customHeight="1">
@@ -6703,55 +6922,55 @@
         <v>1</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="82" t="s">
-        <v>19</v>
+        <v>187</v>
+      </c>
+      <c r="C4" s="84">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84">
+        <v>0</v>
+      </c>
+      <c r="E4" s="84">
+        <v>0</v>
+      </c>
+      <c r="F4" s="84">
+        <v>0</v>
+      </c>
+      <c r="G4" s="84">
+        <v>0</v>
+      </c>
+      <c r="H4" s="84">
+        <v>0</v>
+      </c>
+      <c r="I4" s="84">
+        <v>0</v>
+      </c>
+      <c r="J4" s="84">
+        <v>0</v>
+      </c>
+      <c r="K4" s="84">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84">
+        <v>0</v>
+      </c>
+      <c r="M4" s="84">
+        <v>0</v>
+      </c>
+      <c r="N4" s="84">
+        <v>0</v>
+      </c>
+      <c r="O4" s="84">
+        <v>0</v>
+      </c>
+      <c r="P4" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="84">
+        <v>0</v>
+      </c>
+      <c r="R4" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6759,55 +6978,55 @@
         <v>2</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>19</v>
+        <v>188</v>
+      </c>
+      <c r="C5" s="84">
+        <v>0</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0</v>
+      </c>
+      <c r="E5" s="84">
+        <v>0</v>
+      </c>
+      <c r="F5" s="84">
+        <v>0</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0</v>
+      </c>
+      <c r="H5" s="84">
+        <v>0</v>
+      </c>
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
+        <v>0</v>
+      </c>
+      <c r="K5" s="84">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="84">
+        <v>0</v>
+      </c>
+      <c r="O5" s="84">
+        <v>0</v>
+      </c>
+      <c r="P5" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="84">
+        <v>0</v>
+      </c>
+      <c r="R5" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6815,55 +7034,55 @@
         <v>3</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>19</v>
+        <v>189</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="84">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>0</v>
+      </c>
+      <c r="F6" s="84">
+        <v>0</v>
+      </c>
+      <c r="G6" s="84">
+        <v>0</v>
+      </c>
+      <c r="H6" s="84">
+        <v>0</v>
+      </c>
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="84">
+        <v>0</v>
+      </c>
+      <c r="K6" s="84">
+        <v>0</v>
+      </c>
+      <c r="L6" s="84">
+        <v>0</v>
+      </c>
+      <c r="M6" s="84">
+        <v>0</v>
+      </c>
+      <c r="N6" s="84">
+        <v>0</v>
+      </c>
+      <c r="O6" s="84">
+        <v>0</v>
+      </c>
+      <c r="P6" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="84">
+        <v>0</v>
+      </c>
+      <c r="R6" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6871,55 +7090,55 @@
         <v>4</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="82">
-        <v>1</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="82" t="s">
-        <v>19</v>
+        <v>190</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0</v>
+      </c>
+      <c r="E7" s="84">
+        <v>0</v>
+      </c>
+      <c r="F7" s="84">
+        <v>0</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0</v>
+      </c>
+      <c r="H7" s="84">
+        <v>0</v>
+      </c>
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="84">
+        <v>0</v>
+      </c>
+      <c r="K7" s="84">
+        <v>0</v>
+      </c>
+      <c r="L7" s="84">
+        <v>0</v>
+      </c>
+      <c r="M7" s="84">
+        <v>0</v>
+      </c>
+      <c r="N7" s="84">
+        <v>0</v>
+      </c>
+      <c r="O7" s="84">
+        <v>0</v>
+      </c>
+      <c r="P7" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="84">
+        <v>0</v>
+      </c>
+      <c r="R7" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6927,55 +7146,55 @@
         <v>5</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="82">
-        <v>2</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>19</v>
+        <v>191</v>
+      </c>
+      <c r="C8" s="84">
+        <v>0</v>
+      </c>
+      <c r="D8" s="84">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84">
+        <v>0</v>
+      </c>
+      <c r="F8" s="84">
+        <v>0</v>
+      </c>
+      <c r="G8" s="84">
+        <v>0</v>
+      </c>
+      <c r="H8" s="84">
+        <v>0</v>
+      </c>
+      <c r="I8" s="84">
+        <v>0</v>
+      </c>
+      <c r="J8" s="84">
+        <v>0</v>
+      </c>
+      <c r="K8" s="84">
+        <v>0</v>
+      </c>
+      <c r="L8" s="84">
+        <v>0</v>
+      </c>
+      <c r="M8" s="84">
+        <v>0</v>
+      </c>
+      <c r="N8" s="84">
+        <v>0</v>
+      </c>
+      <c r="O8" s="84">
+        <v>0</v>
+      </c>
+      <c r="P8" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>0</v>
+      </c>
+      <c r="R8" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6983,55 +7202,55 @@
         <v>6</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="82" t="s">
-        <v>19</v>
+        <v>192</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="84">
+        <v>0</v>
+      </c>
+      <c r="E9" s="84">
+        <v>0</v>
+      </c>
+      <c r="F9" s="84">
+        <v>0</v>
+      </c>
+      <c r="G9" s="84">
+        <v>0</v>
+      </c>
+      <c r="H9" s="84">
+        <v>0</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0</v>
+      </c>
+      <c r="J9" s="84">
+        <v>0</v>
+      </c>
+      <c r="K9" s="84">
+        <v>0</v>
+      </c>
+      <c r="L9" s="84">
+        <v>0</v>
+      </c>
+      <c r="M9" s="84">
+        <v>0</v>
+      </c>
+      <c r="N9" s="84">
+        <v>0</v>
+      </c>
+      <c r="O9" s="84">
+        <v>0</v>
+      </c>
+      <c r="P9" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>0</v>
+      </c>
+      <c r="R9" s="84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
